--- a/SEM 5/Progress.xlsx
+++ b/SEM 5/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC3A63F-2A44-4FE9-A731-BB3CF639A0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A5520E-4026-41EC-9D99-067ADD5ED5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,17 +655,17 @@
       <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>37</v>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>37</v>
+      <c r="H6" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>37</v>
@@ -678,17 +678,17 @@
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>37</v>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>37</v>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>16</v>

--- a/SEM 5/Progress.xlsx
+++ b/SEM 5/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A5520E-4026-41EC-9D99-067ADD5ED5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693F12E4-63E6-4EA4-B4A8-B3A45BF54978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,9 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -550,7 +553,7 @@
   <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,8 +696,8 @@
       <c r="G7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>37</v>
+      <c r="H7" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>37</v>
@@ -713,8 +716,8 @@
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>37</v>
+      <c r="E8" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>37</v>
@@ -722,8 +725,8 @@
       <c r="G8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>37</v>
+      <c r="H8" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>37</v>
@@ -736,14 +739,14 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>37</v>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>37</v>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>37</v>

--- a/SEM 5/Progress.xlsx
+++ b/SEM 5/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693F12E4-63E6-4EA4-B4A8-B3A45BF54978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F918A3-328A-4A8C-8C31-2FC0EA8239FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,8 +803,8 @@
       <c r="D11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>37</v>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>37</v>
@@ -1038,8 +1038,8 @@
       <c r="D20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>16</v>
+      <c r="E20" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>16</v>

--- a/SEM 5/Progress.xlsx
+++ b/SEM 5/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F918A3-328A-4A8C-8C31-2FC0EA8239FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE044222-56A3-4512-846C-CC5998357C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,8 +710,8 @@
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>37</v>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>16</v>
@@ -768,8 +768,8 @@
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>37</v>
+      <c r="C10" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>16</v>
@@ -797,8 +797,8 @@
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>37</v>
+      <c r="C11" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>16</v>

--- a/SEM 5/Progress.xlsx
+++ b/SEM 5/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE044222-56A3-4512-846C-CC5998357C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4959C037-5558-457F-B73F-E19CA827430C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -774,8 +774,8 @@
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>37</v>
+      <c r="E10" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>37</v>

--- a/SEM 5/Progress.xlsx
+++ b/SEM 5/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4959C037-5558-457F-B73F-E19CA827430C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8BBC2F-100F-434C-9B20-1564F87C03A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,8 +612,8 @@
       <c r="H4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>37</v>
+      <c r="I4" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>16</v>
@@ -641,8 +641,8 @@
       <c r="H5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>37</v>
+      <c r="I5" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>16</v>
@@ -719,8 +719,8 @@
       <c r="E8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>37</v>
+      <c r="F8" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>16</v>
@@ -748,17 +748,17 @@
       <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>37</v>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>37</v>
+      <c r="H9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>16</v>
@@ -783,8 +783,8 @@
       <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>37</v>
+      <c r="H10" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>37</v>
@@ -812,11 +812,11 @@
       <c r="G11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>37</v>
+      <c r="H11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>16</v>
@@ -826,14 +826,14 @@
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>37</v>
+      <c r="C12" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>37</v>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>37</v>
@@ -855,8 +855,8 @@
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>37</v>
+      <c r="C13" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>16</v>
@@ -884,8 +884,8 @@
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>37</v>
+      <c r="C14" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>16</v>

--- a/SEM 5/Progress.xlsx
+++ b/SEM 5/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8BBC2F-100F-434C-9B20-1564F87C03A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C5658E-1782-4FE8-9240-9886D0AD5F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="28">
   <si>
     <t>EXP1</t>
   </si>
@@ -81,40 +81,10 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>ASS3</t>
-  </si>
-  <si>
-    <t>ASS4</t>
-  </si>
-  <si>
-    <t>ASS5</t>
-  </si>
-  <si>
-    <t>TUT1</t>
-  </si>
-  <si>
-    <t>TUT2</t>
-  </si>
-  <si>
-    <t>TUT3</t>
-  </si>
-  <si>
-    <t>TUT4</t>
-  </si>
-  <si>
-    <t>TUT5</t>
-  </si>
-  <si>
-    <t>TUT6</t>
-  </si>
-  <si>
     <t>EXP14</t>
   </si>
   <si>
     <t>EXP15</t>
-  </si>
-  <si>
-    <t>ASS6</t>
   </si>
   <si>
     <t>ADOP</t>
@@ -550,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J32"/>
+  <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,28 +536,28 @@
   <sheetData>
     <row r="2" spans="2:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -671,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>16</v>
@@ -699,8 +669,8 @@
       <c r="H7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>37</v>
+      <c r="I7" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>16</v>
@@ -729,7 +699,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>16</v>
@@ -777,8 +747,8 @@
       <c r="E10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>37</v>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>16</v>
@@ -787,7 +757,7 @@
         <v>15</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>16</v>
@@ -807,7 +777,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>16</v>
@@ -836,16 +806,16 @@
         <v>15</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>16</v>
@@ -862,19 +832,19 @@
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>16</v>
@@ -891,19 +861,19 @@
         <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>16</v>
@@ -914,25 +884,25 @@
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>16</v>
@@ -943,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>16</v>
@@ -969,28 +939,28 @@
     </row>
     <row r="17" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>16</v>
@@ -998,28 +968,28 @@
     </row>
     <row r="18" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>16</v>
@@ -1050,8 +1020,8 @@
       <c r="H20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>37</v>
+      <c r="I20" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>16</v>
@@ -1079,306 +1049,16 @@
       <c r="H21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>37</v>
+      <c r="I21" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="B22" s="3"/>
+      <c r="J22" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/SEM 5/Progress.xlsx
+++ b/SEM 5/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C5658E-1782-4FE8-9240-9886D0AD5F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82D8E6B-FE85-4040-8A5E-22354B0374B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -814,8 +814,8 @@
       <c r="H12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>27</v>
+      <c r="I12" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>16</v>
@@ -843,8 +843,8 @@
       <c r="H13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>27</v>
+      <c r="I13" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>16</v>
@@ -872,8 +872,8 @@
       <c r="H14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>27</v>
+      <c r="I14" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>16</v>
@@ -901,8 +901,8 @@
       <c r="H15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>27</v>
+      <c r="I15" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>16</v>
@@ -930,8 +930,8 @@
       <c r="H16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>27</v>
+      <c r="I16" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>16</v>
@@ -959,8 +959,8 @@
       <c r="H17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>27</v>
+      <c r="I17" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>16</v>
@@ -988,8 +988,8 @@
       <c r="H18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>27</v>
+      <c r="I18" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>16</v>
@@ -1037,8 +1037,8 @@
       <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>16</v>
+      <c r="E21" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>16</v>

--- a/SEM 5/Progress.xlsx
+++ b/SEM 5/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82D8E6B-FE85-4040-8A5E-22354B0374B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D41A0C9-5696-4211-A1AB-67C464C2E777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,8 +611,8 @@
       <c r="H5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>15</v>
+      <c r="I5" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>16</v>
@@ -698,8 +698,8 @@
       <c r="H8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>27</v>
+      <c r="I8" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>16</v>
@@ -756,8 +756,8 @@
       <c r="H10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>27</v>
+      <c r="I10" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>16</v>
@@ -811,8 +811,8 @@
       <c r="G12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>27</v>
+      <c r="H12" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>16</v>
@@ -860,8 +860,8 @@
       <c r="D14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>27</v>
+      <c r="E14" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>27</v>
@@ -883,14 +883,14 @@
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>27</v>
+      <c r="C15" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>27</v>
+      <c r="E15" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>27</v>
@@ -918,11 +918,11 @@
       <c r="D16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>27</v>
+      <c r="E16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>16</v>
@@ -947,11 +947,11 @@
       <c r="D17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>27</v>
+      <c r="E17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>16</v>
@@ -976,11 +976,11 @@
       <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>27</v>
+      <c r="E18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>16</v>
@@ -1017,8 +1017,8 @@
       <c r="G20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>16</v>
+      <c r="H20" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>16</v>
@@ -1046,8 +1046,8 @@
       <c r="G21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>16</v>
+      <c r="H21" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>16</v>

--- a/SEM 5/Progress.xlsx
+++ b/SEM 5/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D41A0C9-5696-4211-A1AB-67C464C2E777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB008AB-2DBA-4093-9DC0-37DF72793538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,8 +611,8 @@
       <c r="H5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>27</v>
+      <c r="I5" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>16</v>
@@ -640,8 +640,8 @@
       <c r="H6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>27</v>
+      <c r="I6" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>16</v>
@@ -776,8 +776,8 @@
       <c r="E11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>27</v>
+      <c r="F11" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>16</v>
@@ -805,8 +805,8 @@
       <c r="E12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>27</v>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>16</v>
@@ -863,8 +863,8 @@
       <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>27</v>
+      <c r="F14" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>16</v>
@@ -892,8 +892,8 @@
       <c r="E15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>27</v>
+      <c r="F15" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>16</v>
@@ -927,8 +927,8 @@
       <c r="G16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>27</v>
+      <c r="H16" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>16</v>
@@ -956,8 +956,8 @@
       <c r="G17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>27</v>
+      <c r="H17" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>16</v>
@@ -985,8 +985,8 @@
       <c r="G18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>27</v>
+      <c r="H18" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>16</v>
@@ -1011,8 +1011,8 @@
       <c r="E20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>16</v>
+      <c r="F20" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>16</v>
@@ -1040,8 +1040,8 @@
       <c r="E21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>16</v>
+      <c r="F21" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>16</v>

--- a/SEM 5/Progress.xlsx
+++ b/SEM 5/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB008AB-2DBA-4093-9DC0-37DF72793538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F33CE4-2F4D-459D-A438-5BB043DAC772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1011,8 +1011,8 @@
       <c r="E20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>27</v>
+      <c r="F20" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>16</v>
@@ -1040,8 +1040,8 @@
       <c r="E21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>27</v>
+      <c r="F21" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>16</v>

--- a/SEM 5/Progress.xlsx
+++ b/SEM 5/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F33CE4-2F4D-459D-A438-5BB043DAC772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7662A88-D254-400E-8504-5BE151DAD2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -831,11 +831,11 @@
       <c r="D13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>27</v>
+      <c r="E13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>16</v>

--- a/SEM 5/Progress.xlsx
+++ b/SEM 5/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7662A88-D254-400E-8504-5BE151DAD2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84006D8-0A3A-4409-8379-8524212EC1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1002,8 +1002,8 @@
       <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>16</v>
+      <c r="C20" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>16</v>

--- a/SEM 5/Progress.xlsx
+++ b/SEM 5/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84006D8-0A3A-4409-8379-8524212EC1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102F11BC-ED6F-46EC-92FB-A23C00BBBAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -840,8 +840,8 @@
       <c r="G13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>27</v>
+      <c r="H13" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>16</v>
@@ -869,8 +869,8 @@
       <c r="G14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>27</v>
+      <c r="H14" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>16</v>
@@ -898,8 +898,8 @@
       <c r="G15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>27</v>
+      <c r="H15" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>16</v>
@@ -1031,8 +1031,8 @@
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>16</v>
+      <c r="C21" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>16</v>

--- a/SEM 5/Progress.xlsx
+++ b/SEM 5/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102F11BC-ED6F-46EC-92FB-A23C00BBBAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E432B46-419E-46B7-BFAF-B7E60491748E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -912,8 +912,8 @@
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>27</v>
+      <c r="C16" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>16</v>
@@ -941,8 +941,8 @@
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>27</v>
+      <c r="C17" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>16</v>
@@ -1017,8 +1017,8 @@
       <c r="G20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>27</v>
+      <c r="H20" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>16</v>
@@ -1046,8 +1046,8 @@
       <c r="G21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>27</v>
+      <c r="H21" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>16</v>

--- a/SEM 5/Progress.xlsx
+++ b/SEM 5/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E432B46-419E-46B7-BFAF-B7E60491748E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD4E1AC-3DBD-4DFF-86ED-F1AAC47B8C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1031,8 +1031,8 @@
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>27</v>
+      <c r="C21" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>16</v>

--- a/SEM 5/Progress.xlsx
+++ b/SEM 5/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD4E1AC-3DBD-4DFF-86ED-F1AAC47B8C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C574411-DE2F-449E-BE7C-A4EA29F11BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="26">
   <si>
     <t>EXP1</t>
   </si>
@@ -84,9 +84,6 @@
     <t>EXP14</t>
   </si>
   <si>
-    <t>EXP15</t>
-  </si>
-  <si>
     <t>ADOP</t>
   </si>
   <si>
@@ -109,16 +106,13 @@
   </si>
   <si>
     <t>SEN</t>
-  </si>
-  <si>
-    <t>Incomplete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,25 +153,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Microsoft JhengHei UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Microsoft JhengHei UI Light"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,11 +168,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -210,12 +186,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -229,18 +204,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -520,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,53 +507,53 @@
   <sheetData>
     <row r="2" spans="2:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="H4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="5" t="s">
@@ -593,25 +564,25 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="H5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="5" t="s">
@@ -622,25 +593,25 @@
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="5" t="s">
@@ -651,25 +622,25 @@
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="H7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="5" t="s">
@@ -680,25 +651,25 @@
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="7" t="s">
+      <c r="H8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="5" t="s">
@@ -709,25 +680,25 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="7" t="s">
+      <c r="H9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="J9" s="5" t="s">
@@ -738,25 +709,25 @@
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="7" t="s">
+      <c r="H10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="J10" s="5" t="s">
@@ -767,25 +738,25 @@
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="7" t="s">
+      <c r="H11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="J11" s="5" t="s">
@@ -796,22 +767,22 @@
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="5" t="s">
@@ -825,22 +796,22 @@
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="5" t="s">
@@ -854,7 +825,7 @@
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -869,7 +840,7 @@
       <c r="G14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="5" t="s">
@@ -883,7 +854,7 @@
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -898,7 +869,7 @@
       <c r="G15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="5" t="s">
@@ -912,7 +883,7 @@
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -941,7 +912,7 @@
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -967,57 +938,57 @@
       </c>
     </row>
     <row r="18" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="5" t="s">
@@ -1028,37 +999,8 @@
       </c>
     </row>
     <row r="21" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-      <c r="J22" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="J21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
